--- a/results/GAIA_TESS_confirmed_matches.xlsx
+++ b/results/GAIA_TESS_confirmed_matches.xlsx
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="AT2" t="n">
         <v>0.2166096956528022</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="AT3" t="n">
         <v>0.2166096956528022</v>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="AT4" t="n">
         <v>0.2166096956528022</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="AT5" t="n">
         <v>0.2166096956528022</v>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="AT6" t="n">
         <v>0.2166096956528022</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="AT7" t="n">
         <v>0.3520664886724961</v>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="AS8" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="AT8" t="n">
         <v>0.3520664886724961</v>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="AS9" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="AT9" t="n">
         <v>0.3520664886724961</v>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="AS10" s="3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="AT10" t="n">
         <v>0.3520664886724961</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="AS11" s="3" t="n">
-        <v>0.8644919551961594</v>
+        <v>0.3413606004182153</v>
       </c>
       <c r="AT11" t="n">
         <v>2.353824544851206</v>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>0.8644919551961594</v>
+        <v>0.3413606004182153</v>
       </c>
       <c r="AT12" t="n">
         <v>2.353824544851206</v>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="AS13" s="3" t="n">
-        <v>1.041400126901819</v>
+        <v>0.5009802040805239</v>
       </c>
       <c r="AT13" t="n">
         <v>0.3754179789353104</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>1.597062214762744</v>
+        <v>0.9099502856655908</v>
       </c>
       <c r="AT14" t="n">
         <v>0.1462259277249026</v>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="AS15" s="3" t="n">
-        <v>1.597062214762744</v>
+        <v>0.9099502856655908</v>
       </c>
       <c r="AT15" t="n">
         <v>0.1462259277249026</v>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>1.224137941123268</v>
+        <v>0.6864372264763136</v>
       </c>
       <c r="AT16" t="n">
         <v>0.164310152188306</v>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>1.224137941123268</v>
+        <v>0.6864372264763136</v>
       </c>
       <c r="AT17" t="n">
         <v>0.164310152188306</v>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>1.224137941123268</v>
+        <v>0.6864372264763136</v>
       </c>
       <c r="AT18" t="n">
         <v>0.164310152188306</v>
@@ -2879,7 +2879,7 @@
         </is>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>1.224137941123268</v>
+        <v>0.6864372264763136</v>
       </c>
       <c r="AT19" t="n">
         <v>0.164310152188306</v>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="AS20" s="3" t="n">
-        <v>1.36613251491658</v>
+        <v>0.7607094662225418</v>
       </c>
       <c r="AT20" t="n">
         <v>0.07028819513410729</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="AS21" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="AT21" t="n">
         <v>0.2231928428688806</v>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="AS22" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="AT22" t="n">
         <v>0.2231928428688806</v>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="AS23" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="AT23" t="n">
         <v>0.2231928428688806</v>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="AS24" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="AT24" t="n">
         <v>0.2231928428688806</v>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="AS25" s="3" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="AT25" t="n">
         <v>0.2231928428688806</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="AS26" s="3" t="n">
-        <v>1.385406129986937</v>
+        <v>0.6061402618854591</v>
       </c>
       <c r="AT26" t="n">
         <v>0.3444468967769879</v>
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="AS27" s="3" t="n">
-        <v>1.385406129986937</v>
+        <v>0.6061402618854591</v>
       </c>
       <c r="AT27" t="n">
         <v>0.3444468967769879</v>
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="AS28" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT28" t="n">
         <v>0.03967592837332257</v>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="AS29" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT29" t="n">
         <v>0.03967592837332257</v>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="AS30" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT30" t="n">
         <v>0.03967592837332257</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="AS31" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT31" t="n">
         <v>0.03967592837332257</v>
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="AS32" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT32" t="n">
         <v>0.03967592837332257</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="AS33" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT33" t="n">
         <v>0.03967592837332257</v>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="AS34" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT34" t="n">
         <v>0.03967592837332257</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="AS35" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT35" t="n">
         <v>0.03967592837332257</v>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="AS36" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT36" t="n">
         <v>0.03967592837332257</v>
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="AS37" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT37" t="n">
         <v>0.03967592837332257</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="AS38" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT38" t="n">
         <v>0.03967592837332257</v>
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="AS39" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT39" t="n">
         <v>0.03967592837332257</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="AS40" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT40" t="n">
         <v>0.03967592837332257</v>
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="AS41" s="3" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="AT41" t="n">
         <v>0.03967592837332257</v>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="AS42" s="3" t="n">
-        <v>1.229698743858559</v>
+        <v>0.5002958724523116</v>
       </c>
       <c r="AT42" t="n">
         <v>0.627825210248958</v>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="AS43" s="3" t="n">
-        <v>1.229698743858559</v>
+        <v>0.5002958724523116</v>
       </c>
       <c r="AT43" t="n">
         <v>0.627825210248958</v>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="AS44" s="3" t="n">
-        <v>1.229698743858559</v>
+        <v>0.5002958724523116</v>
       </c>
       <c r="AT44" t="n">
         <v>0.627825210248958</v>
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="AS45" s="3" t="n">
-        <v>1.229698743858559</v>
+        <v>0.5002958724523116</v>
       </c>
       <c r="AT45" t="n">
         <v>0.627825210248958</v>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="AS46" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT46" t="n">
         <v>0.06926506430269846</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="AS47" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT47" t="n">
         <v>0.06926506430269846</v>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="AS48" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT48" t="n">
         <v>0.06926506430269846</v>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="AS49" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT49" t="n">
         <v>0.06926506430269846</v>
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="AS50" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT50" t="n">
         <v>0.06926506430269846</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="AS51" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT51" t="n">
         <v>0.06926506430269846</v>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="AS52" s="3" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="AT52" t="n">
         <v>0.06926506430269846</v>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="AS53" s="3" t="n">
-        <v>1.519219641077185</v>
+        <v>0.8391916602564956</v>
       </c>
       <c r="AT53" t="n">
         <v>0.1748036902513162</v>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="AS54" s="3" t="n">
-        <v>1.519219641077185</v>
+        <v>0.8391916602564956</v>
       </c>
       <c r="AT54" t="n">
         <v>0.1748036902513162</v>
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="AS55" s="3" t="n">
-        <v>1.478838385172711</v>
+        <v>0.8055015613867987</v>
       </c>
       <c r="AT55" t="n">
         <v>0.6385138891402821</v>
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="AS56" s="3" t="n">
-        <v>1.478838385172711</v>
+        <v>0.8055015613867987</v>
       </c>
       <c r="AT56" t="n">
         <v>0.6385138891402821</v>
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AS57" s="3" t="n">
-        <v>1.478838385172711</v>
+        <v>0.8055015613867987</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6385138891402821</v>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="AS58" s="3" t="n">
-        <v>1.154396382227662</v>
+        <v>0.4993050988349808</v>
       </c>
       <c r="AT58" t="n">
         <v>1.109988087293462</v>
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="AS59" s="3" t="n">
-        <v>1.154396382227662</v>
+        <v>0.4993050988349808</v>
       </c>
       <c r="AT59" t="n">
         <v>1.109988087293462</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="AS60" s="3" t="n">
-        <v>1.154396382227662</v>
+        <v>0.4993050988349808</v>
       </c>
       <c r="AT60" t="n">
         <v>1.109988087293462</v>
@@ -7937,7 +7937,7 @@
         </is>
       </c>
       <c r="AS61" s="3" t="n">
-        <v>1.872068763608918</v>
+        <v>0.9687966755612029</v>
       </c>
       <c r="AT61" t="n">
         <v>0.07376330176697624</v>
@@ -8054,7 +8054,7 @@
         </is>
       </c>
       <c r="AS62" s="3" t="n">
-        <v>1.872068763608918</v>
+        <v>0.9687966755612029</v>
       </c>
       <c r="AT62" t="n">
         <v>0.07376330176697624</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="AS63" s="3" t="n">
-        <v>1.872068763608918</v>
+        <v>0.9687966755612029</v>
       </c>
       <c r="AT63" t="n">
         <v>0.07376330176697624</v>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="AS64" s="3" t="n">
-        <v>1.675555626414993</v>
+        <v>0.9007607378167973</v>
       </c>
       <c r="AT64" t="n">
         <v>0.1098850114840122</v>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="AS65" s="3" t="n">
-        <v>1.675555626414993</v>
+        <v>0.9007607378167973</v>
       </c>
       <c r="AT65" t="n">
         <v>0.1098850114840122</v>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="AS66" s="3" t="n">
-        <v>1.675555626414993</v>
+        <v>0.9007607378167973</v>
       </c>
       <c r="AT66" t="n">
         <v>0.1098850114840122</v>
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="AS67" s="3" t="n">
-        <v>1.675555626414993</v>
+        <v>0.9007607378167973</v>
       </c>
       <c r="AT67" t="n">
         <v>0.1098850114840122</v>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="AS68" s="3" t="n">
-        <v>2.317290671943269</v>
+        <v>1.176005381436093</v>
       </c>
       <c r="AT68" t="n">
         <v>0.08872699562569079</v>
@@ -8865,7 +8865,7 @@
         </is>
       </c>
       <c r="AS69" s="3" t="n">
-        <v>1.66001528536294</v>
+        <v>0.7632650095715878</v>
       </c>
       <c r="AT69" t="n">
         <v>0.06086820433978597</v>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="AS70" s="3" t="n">
-        <v>1.938544507963323</v>
+        <v>1.045198142659798</v>
       </c>
       <c r="AT70" t="n">
         <v>0.1284421547446418</v>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="AS71" s="3" t="n">
-        <v>1.938544507963323</v>
+        <v>1.045198142659798</v>
       </c>
       <c r="AT71" t="n">
         <v>0.1284421547446418</v>
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="AS72" s="3" t="n">
-        <v>1.938544507963323</v>
+        <v>1.045198142659798</v>
       </c>
       <c r="AT72" t="n">
         <v>0.1284421547446418</v>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="AS73" s="3" t="n">
-        <v>1.938544507963323</v>
+        <v>1.045198142659798</v>
       </c>
       <c r="AT73" t="n">
         <v>0.1284421547446418</v>
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="AS74" s="3" t="n">
-        <v>1.374792189479318</v>
+        <v>0.6653018104575337</v>
       </c>
       <c r="AT74" t="n">
         <v>0.07254886488130212</v>
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="AS75" s="3" t="n">
-        <v>1.879271874677891</v>
+        <v>1.006119092791702</v>
       </c>
       <c r="AT75" t="n">
         <v>0.1440615078229511</v>
@@ -9655,7 +9655,7 @@
         </is>
       </c>
       <c r="AS76" s="3" t="n">
-        <v>1.879271874677891</v>
+        <v>1.006119092791702</v>
       </c>
       <c r="AT76" t="n">
         <v>0.1440615078229511</v>
@@ -9774,7 +9774,7 @@
         </is>
       </c>
       <c r="AS77" s="3" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="AT77" t="n">
         <v>0.09581758609084928</v>
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="AS78" s="3" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="AT78" t="n">
         <v>0.09581758609084928</v>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="AS79" s="3" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="AT79" t="n">
         <v>0.09581758609084928</v>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="AS80" s="3" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="AT80" t="n">
         <v>0.09581758609084928</v>
@@ -10228,7 +10228,7 @@
         </is>
       </c>
       <c r="AS81" s="3" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="AT81" t="n">
         <v>0.09581758609084928</v>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="AS82" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5132458562015267</v>
@@ -10465,7 +10465,7 @@
         </is>
       </c>
       <c r="AS83" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT83" t="n">
         <v>0.5132458562015267</v>
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="AS84" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5132458562015267</v>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="AS85" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5132458562015267</v>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="AS86" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT86" t="n">
         <v>0.5132458562015267</v>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="AS87" s="3" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5132458562015267</v>
@@ -11067,7 +11067,7 @@
         </is>
       </c>
       <c r="AS88" s="3" t="n">
-        <v>1.674910410426135</v>
+        <v>0.962327582179309</v>
       </c>
       <c r="AT88" t="n">
         <v>0.157659876737929</v>
@@ -11184,7 +11184,7 @@
         </is>
       </c>
       <c r="AS89" s="3" t="n">
-        <v>1.674910410426135</v>
+        <v>0.962327582179309</v>
       </c>
       <c r="AT89" t="n">
         <v>0.157659876737929</v>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="AS90" s="3" t="n">
-        <v>4.547987973278412</v>
+        <v>1.714165176662551</v>
       </c>
       <c r="AT90" t="n">
         <v>0.3199323813182475</v>
@@ -11408,7 +11408,7 @@
         </is>
       </c>
       <c r="AS91" s="3" t="n">
-        <v>4.547987973278412</v>
+        <v>1.714165176662551</v>
       </c>
       <c r="AT91" t="n">
         <v>0.3199323813182475</v>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="AS92" s="3" t="n">
-        <v>4.547987973278412</v>
+        <v>1.714165176662551</v>
       </c>
       <c r="AT92" t="n">
         <v>0.3199323813182475</v>
@@ -11653,7 +11653,7 @@
         </is>
       </c>
       <c r="AS93" s="3" t="n">
-        <v>4.547987973278412</v>
+        <v>1.714165176662551</v>
       </c>
       <c r="AT93" t="n">
         <v>0.3199323813182475</v>
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="AS94" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT94" t="n">
         <v>0.2198726396706282</v>
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="AS95" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT95" t="n">
         <v>0.2198726396706282</v>
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="AS96" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT96" t="n">
         <v>0.2198726396706282</v>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="AS97" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT97" t="n">
         <v>0.2198726396706282</v>
@@ -12230,7 +12230,7 @@
         </is>
       </c>
       <c r="AS98" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT98" t="n">
         <v>0.2198726396706282</v>
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="AS99" s="3" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="AT99" t="n">
         <v>0.2198726396706282</v>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="AS100" s="3" t="n">
-        <v>1.779346361516432</v>
+        <v>0.9598856590590444</v>
       </c>
       <c r="AT100" t="n">
         <v>0.1334045185805506</v>
@@ -12603,7 +12603,7 @@
         </is>
       </c>
       <c r="AS101" s="3" t="n">
-        <v>1.779346361516432</v>
+        <v>0.9598856590590444</v>
       </c>
       <c r="AT101" t="n">
         <v>0.1334045185805506</v>
@@ -12703,7 +12703,7 @@
         </is>
       </c>
       <c r="AS102" s="3" t="n">
-        <v>1.314693373316554</v>
+        <v>0.5024338210309615</v>
       </c>
       <c r="AT102" t="n">
         <v>0.9581603308500585</v>
@@ -12803,7 +12803,7 @@
         </is>
       </c>
       <c r="AS103" s="3" t="n">
-        <v>1.314693373316554</v>
+        <v>0.5024338210309615</v>
       </c>
       <c r="AT103" t="n">
         <v>0.9581603308500585</v>
@@ -12903,7 +12903,7 @@
         </is>
       </c>
       <c r="AS104" s="3" t="n">
-        <v>1.314693373316554</v>
+        <v>0.5024338210309615</v>
       </c>
       <c r="AT104" t="n">
         <v>0.9581603308500585</v>
@@ -13003,7 +13003,7 @@
         </is>
       </c>
       <c r="AS105" s="3" t="n">
-        <v>1.314693373316554</v>
+        <v>0.5024338210309615</v>
       </c>
       <c r="AT105" t="n">
         <v>0.9581603308500585</v>
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="AS106" s="3" t="n">
-        <v>1.7874519302651</v>
+        <v>0.769122134591136</v>
       </c>
       <c r="AT106" t="n">
         <v>0.1407642619120336</v>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="AS107" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT107" t="n">
         <v>1.560329351540907</v>
@@ -13358,7 +13358,7 @@
         </is>
       </c>
       <c r="AS108" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT108" t="n">
         <v>1.560329351540907</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="AS109" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT109" t="n">
         <v>1.560329351540907</v>
@@ -13617,7 +13617,7 @@
         </is>
       </c>
       <c r="AS110" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT110" t="n">
         <v>1.560329351540907</v>
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="AS111" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT111" t="n">
         <v>1.560329351540907</v>
@@ -13856,7 +13856,7 @@
         </is>
       </c>
       <c r="AS112" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT112" t="n">
         <v>1.560329351540907</v>
@@ -13961,7 +13961,7 @@
         </is>
       </c>
       <c r="AS113" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT113" t="n">
         <v>1.560329351540907</v>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="AS114" s="3" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="AT114" t="n">
         <v>1.560329351540907</v>
@@ -14214,7 +14214,7 @@
         </is>
       </c>
       <c r="AS115" s="3" t="n">
-        <v>1.769563483752197</v>
+        <v>0.9793900339307793</v>
       </c>
       <c r="AT115" t="n">
         <v>0.08100805368008178</v>
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="AS116" s="3" t="n">
-        <v>1.769563483752197</v>
+        <v>0.9793900339307793</v>
       </c>
       <c r="AT116" t="n">
         <v>0.08100805368008178</v>
@@ -14465,7 +14465,7 @@
         </is>
       </c>
       <c r="AS117" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT117" t="n">
         <v>0.1214838154215916</v>
@@ -14565,7 +14565,7 @@
         </is>
       </c>
       <c r="AS118" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT118" t="n">
         <v>0.1214838154215916</v>
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="AS119" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT119" t="n">
         <v>0.1214838154215916</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="AS120" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT120" t="n">
         <v>0.1214838154215916</v>
@@ -14930,7 +14930,7 @@
         </is>
       </c>
       <c r="AS121" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT121" t="n">
         <v>0.1214838154215916</v>
@@ -15032,7 +15032,7 @@
         </is>
       </c>
       <c r="AS122" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT122" t="n">
         <v>0.1214838154215916</v>
@@ -15157,7 +15157,7 @@
         </is>
       </c>
       <c r="AS123" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT123" t="n">
         <v>0.1214838154215916</v>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="AS124" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT124" t="n">
         <v>0.1214838154215916</v>
@@ -15359,7 +15359,7 @@
         </is>
       </c>
       <c r="AS125" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT125" t="n">
         <v>0.1214838154215916</v>
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="AS126" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT126" t="n">
         <v>0.1214838154215916</v>
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="AS127" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT127" t="n">
         <v>0.1214838154215916</v>
@@ -15722,7 +15722,7 @@
         </is>
       </c>
       <c r="AS128" s="3" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="AT128" t="n">
         <v>0.1214838154215916</v>
@@ -15836,7 +15836,7 @@
         </is>
       </c>
       <c r="AS129" s="3" t="n">
-        <v>1.841097341802585</v>
+        <v>1.031508887969779</v>
       </c>
       <c r="AT129" t="n">
         <v>0.02665191043162943</v>
@@ -15964,7 +15964,7 @@
         </is>
       </c>
       <c r="AS130" s="3" t="n">
-        <v>1.841097341802585</v>
+        <v>1.031508887969779</v>
       </c>
       <c r="AT130" t="n">
         <v>0.02665191043162943</v>
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="AS131" s="3" t="n">
-        <v>1.841097341802585</v>
+        <v>1.031508887969779</v>
       </c>
       <c r="AT131" t="n">
         <v>0.02665191043162943</v>
@@ -16206,7 +16206,7 @@
         </is>
       </c>
       <c r="AS132" s="3" t="n">
-        <v>1.841097341802585</v>
+        <v>1.031508887969779</v>
       </c>
       <c r="AT132" t="n">
         <v>0.02665191043162943</v>
@@ -16322,7 +16322,7 @@
         </is>
       </c>
       <c r="AS133" s="3" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="AT133" t="n">
         <v>0.2296513481517063</v>
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="AS134" s="3" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="AT134" t="n">
         <v>0.2296513481517063</v>
@@ -16553,7 +16553,7 @@
         </is>
       </c>
       <c r="AS135" s="3" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="AT135" t="n">
         <v>0.2296513481517063</v>
@@ -16673,7 +16673,7 @@
         </is>
       </c>
       <c r="AS136" s="3" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="AT136" t="n">
         <v>0.2296513481517063</v>
@@ -16790,7 +16790,7 @@
         </is>
       </c>
       <c r="AS137" s="3" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="AT137" t="n">
         <v>0.2296513481517063</v>
@@ -16899,7 +16899,7 @@
         </is>
       </c>
       <c r="AS138" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT138" t="n">
         <v>0.3110398265209757</v>
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="AS139" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT139" t="n">
         <v>0.3110398265209757</v>
@@ -17122,7 +17122,7 @@
         </is>
       </c>
       <c r="AS140" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT140" t="n">
         <v>0.3110398265209757</v>
@@ -17242,7 +17242,7 @@
         </is>
       </c>
       <c r="AS141" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT141" t="n">
         <v>0.3110398265209757</v>
@@ -17359,7 +17359,7 @@
         </is>
       </c>
       <c r="AS142" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT142" t="n">
         <v>0.3110398265209757</v>
@@ -17476,7 +17476,7 @@
         </is>
       </c>
       <c r="AS143" s="3" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="AT143" t="n">
         <v>0.3110398265209757</v>
@@ -17584,7 +17584,7 @@
         </is>
       </c>
       <c r="AS144" s="3" t="n">
-        <v>1.614680139783613</v>
+        <v>0.8718296510886581</v>
       </c>
       <c r="AT144" t="n">
         <v>0.1570045037524951</v>
@@ -17684,7 +17684,7 @@
         </is>
       </c>
       <c r="AS145" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT145" t="n">
         <v>0.05792570453184236</v>
@@ -17783,7 +17783,7 @@
         </is>
       </c>
       <c r="AS146" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT146" t="n">
         <v>0.05792570453184236</v>
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="AS147" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT147" t="n">
         <v>0.05792570453184236</v>
@@ -18035,7 +18035,7 @@
         </is>
       </c>
       <c r="AS148" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT148" t="n">
         <v>0.05792570453184236</v>
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="AS149" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT149" t="n">
         <v>0.05792570453184236</v>
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="AS150" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT150" t="n">
         <v>0.05792570453184236</v>
@@ -18360,7 +18360,7 @@
         </is>
       </c>
       <c r="AS151" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT151" t="n">
         <v>0.05792570453184236</v>
@@ -18484,7 +18484,7 @@
         </is>
       </c>
       <c r="AS152" s="3" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="AT152" t="n">
         <v>0.05792570453184236</v>
@@ -18613,7 +18613,7 @@
         </is>
       </c>
       <c r="AS153" s="3" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="AT153" t="n">
         <v>0.1212625534988628</v>
@@ -18742,7 +18742,7 @@
         </is>
       </c>
       <c r="AS154" s="3" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="AT154" t="n">
         <v>0.1212625534988628</v>
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="AS155" s="3" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="AT155" t="n">
         <v>0.1212625534988628</v>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="AS156" s="3" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="AT156" t="n">
         <v>0.1212625534988628</v>
@@ -19129,7 +19129,7 @@
         </is>
       </c>
       <c r="AS157" s="3" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="AT157" t="n">
         <v>0.1212625534988628</v>
@@ -19229,7 +19229,7 @@
         </is>
       </c>
       <c r="AS158" s="3" t="n">
-        <v>1.793569426636678</v>
+        <v>0.7548130647629328</v>
       </c>
       <c r="AT158" t="n">
         <v>0.2337700350284061</v>
@@ -19329,7 +19329,7 @@
         </is>
       </c>
       <c r="AS159" s="3" t="n">
-        <v>1.793569426636678</v>
+        <v>0.7548130647629328</v>
       </c>
       <c r="AT159" t="n">
         <v>0.2337700350284061</v>
@@ -19440,7 +19440,7 @@
         </is>
       </c>
       <c r="AS160" s="3" t="n">
-        <v>1.793569426636678</v>
+        <v>0.7548130647629328</v>
       </c>
       <c r="AT160" t="n">
         <v>0.2337700350284061</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="AS161" s="3" t="n">
-        <v>1.785436963605669</v>
+        <v>0.8420537516597376</v>
       </c>
       <c r="AT161" t="n">
         <v>0.05335605852238804</v>
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="AS162" s="3" t="n">
-        <v>1.785436963605669</v>
+        <v>0.8420537516597376</v>
       </c>
       <c r="AT162" t="n">
         <v>0.05335605852238804</v>
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="AS163" s="3" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="AT163" t="n">
         <v>0.04736511884789894</v>
@@ -19913,7 +19913,7 @@
         </is>
       </c>
       <c r="AS164" s="3" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="AT164" t="n">
         <v>0.04736511884789894</v>
@@ -20030,7 +20030,7 @@
         </is>
       </c>
       <c r="AS165" s="3" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="AT165" t="n">
         <v>0.04736511884789894</v>
@@ -20155,7 +20155,7 @@
         </is>
       </c>
       <c r="AS166" s="3" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="AT166" t="n">
         <v>0.04736511884789894</v>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="AS167" s="3" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="AT167" t="n">
         <v>0.04736511884789894</v>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="AS168" s="3" t="n">
-        <v>1.865774029935113</v>
+        <v>0.720968476254795</v>
       </c>
       <c r="AT168" t="n">
         <v>0.7918001464467874</v>
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="AS169" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT169" t="n">
         <v>0.1091227106816842</v>
@@ -20616,7 +20616,7 @@
         </is>
       </c>
       <c r="AS170" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT170" t="n">
         <v>0.1091227106816842</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="AS171" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT171" t="n">
         <v>0.1091227106816842</v>
@@ -20850,7 +20850,7 @@
         </is>
       </c>
       <c r="AS172" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT172" t="n">
         <v>0.1091227106816842</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="AS173" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT173" t="n">
         <v>0.1091227106816842</v>
@@ -21090,7 +21090,7 @@
         </is>
       </c>
       <c r="AS174" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT174" t="n">
         <v>0.1091227106816842</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="AS175" s="3" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="AT175" t="n">
         <v>0.1091227106816842</v>
@@ -21307,7 +21307,7 @@
         </is>
       </c>
       <c r="AS176" s="3" t="n">
-        <v>2.459065739991192</v>
+        <v>1.245065528273892</v>
       </c>
       <c r="AT176" t="n">
         <v>0.0622636887335201</v>
@@ -21435,7 +21435,7 @@
         </is>
       </c>
       <c r="AS177" s="3" t="n">
-        <v>2.459065739991192</v>
+        <v>1.245065528273892</v>
       </c>
       <c r="AT177" t="n">
         <v>0.0622636887335201</v>
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="AS178" s="3" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="AT178" t="n">
         <v>0.1736703885707021</v>
@@ -21675,7 +21675,7 @@
         </is>
       </c>
       <c r="AS179" s="3" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="AT179" t="n">
         <v>0.1736703885707021</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="AS180" s="3" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="AT180" t="n">
         <v>0.1736703885707021</v>
@@ -21897,7 +21897,7 @@
         </is>
       </c>
       <c r="AS181" s="3" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="AT181" t="n">
         <v>0.1736703885707021</v>
@@ -22014,7 +22014,7 @@
         </is>
       </c>
       <c r="AS182" s="3" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="AT182" t="n">
         <v>0.1736703885707021</v>
@@ -22134,7 +22134,7 @@
         </is>
       </c>
       <c r="AS183" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT183" t="n">
         <v>0.05171970502364201</v>
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="AS184" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT184" t="n">
         <v>0.05171970502364201</v>
@@ -22359,7 +22359,7 @@
         </is>
       </c>
       <c r="AS185" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT185" t="n">
         <v>0.05171970502364201</v>
@@ -22459,7 +22459,7 @@
         </is>
       </c>
       <c r="AS186" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT186" t="n">
         <v>0.05171970502364201</v>
@@ -22576,7 +22576,7 @@
         </is>
       </c>
       <c r="AS187" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT187" t="n">
         <v>0.05171970502364201</v>
@@ -22695,7 +22695,7 @@
         </is>
       </c>
       <c r="AS188" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT188" t="n">
         <v>0.05171970502364201</v>
@@ -22795,7 +22795,7 @@
         </is>
       </c>
       <c r="AS189" s="3" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="AT189" t="n">
         <v>0.05171970502364201</v>
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="AS190" s="3" t="n">
-        <v>2.388058930302612</v>
+        <v>1.156524441418709</v>
       </c>
       <c r="AT190" t="n">
         <v>0.13172023331799</v>
@@ -23012,7 +23012,7 @@
         </is>
       </c>
       <c r="AS191" s="3" t="n">
-        <v>2.388058930302612</v>
+        <v>1.156524441418709</v>
       </c>
       <c r="AT191" t="n">
         <v>0.13172023331799</v>
@@ -23112,7 +23112,7 @@
         </is>
       </c>
       <c r="AS192" s="3" t="n">
-        <v>2.388058930302612</v>
+        <v>1.156524441418709</v>
       </c>
       <c r="AT192" t="n">
         <v>0.13172023331799</v>
@@ -23226,7 +23226,7 @@
         </is>
       </c>
       <c r="AS193" s="3" t="n">
-        <v>2.515772760298895</v>
+        <v>1.291502758237461</v>
       </c>
       <c r="AT193" t="n">
         <v>0.03619670827697</v>
@@ -23354,7 +23354,7 @@
         </is>
       </c>
       <c r="AS194" s="3" t="n">
-        <v>2.515772760298895</v>
+        <v>1.291502758237461</v>
       </c>
       <c r="AT194" t="n">
         <v>0.03619670827697</v>
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="AS195" s="3" t="n">
-        <v>2.515772760298895</v>
+        <v>1.291502758237461</v>
       </c>
       <c r="AT195" t="n">
         <v>0.03619670827697</v>
@@ -23588,7 +23588,7 @@
         </is>
       </c>
       <c r="AS196" s="3" t="n">
-        <v>2.515772760298895</v>
+        <v>1.291502758237461</v>
       </c>
       <c r="AT196" t="n">
         <v>0.03619670827697</v>
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="AS197" s="3" t="n">
-        <v>1.95338208940529</v>
+        <v>1.057362426118864</v>
       </c>
       <c r="AT197" t="n">
         <v>0.09315211191390706</v>
@@ -23819,7 +23819,7 @@
         </is>
       </c>
       <c r="AS198" s="3" t="n">
-        <v>2.296910722425471</v>
+        <v>1.163482428291984</v>
       </c>
       <c r="AT198" t="n">
         <v>0.1541323422810708</v>
@@ -23930,7 +23930,7 @@
         </is>
       </c>
       <c r="AS199" s="3" t="n">
-        <v>2.247039928644614</v>
+        <v>1.101890253841862</v>
       </c>
       <c r="AT199" t="n">
         <v>0.08005626860343601</v>
@@ -24055,7 +24055,7 @@
         </is>
       </c>
       <c r="AS200" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT200" t="n">
         <v>0.09590216004649577</v>
@@ -24161,7 +24161,7 @@
         </is>
       </c>
       <c r="AS201" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT201" t="n">
         <v>0.09590216004649577</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="AS202" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT202" t="n">
         <v>0.09590216004649577</v>
@@ -24401,7 +24401,7 @@
         </is>
       </c>
       <c r="AS203" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT203" t="n">
         <v>0.09590216004649577</v>
@@ -24507,7 +24507,7 @@
         </is>
       </c>
       <c r="AS204" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT204" t="n">
         <v>0.09590216004649577</v>
@@ -24630,7 +24630,7 @@
         </is>
       </c>
       <c r="AS205" s="3" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="AT205" t="n">
         <v>0.09590216004649577</v>
@@ -24761,7 +24761,7 @@
         </is>
       </c>
       <c r="AS206" s="3" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="AT206" t="n">
         <v>0.7548271155379396</v>
@@ -24878,7 +24878,7 @@
         </is>
       </c>
       <c r="AS207" s="3" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="AT207" t="n">
         <v>0.7548271155379396</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="AS208" s="3" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="AT208" t="n">
         <v>0.7548271155379396</v>
@@ -25126,7 +25126,7 @@
         </is>
       </c>
       <c r="AS209" s="3" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="AT209" t="n">
         <v>0.7548271155379396</v>
@@ -25257,7 +25257,7 @@
         </is>
       </c>
       <c r="AS210" s="3" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="AT210" t="n">
         <v>0.7548271155379396</v>
@@ -25357,7 +25357,7 @@
         </is>
       </c>
       <c r="AS211" s="3" t="n">
-        <v>1.920756217195706</v>
+        <v>0.8116469219351619</v>
       </c>
       <c r="AT211" t="n">
         <v>0.2063162317891765</v>
@@ -25474,7 +25474,7 @@
         </is>
       </c>
       <c r="AS212" s="3" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="AT212" t="n">
         <v>0.1513280291468057</v>
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="AS213" s="3" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="AT213" t="n">
         <v>0.1513280291468057</v>
@@ -25719,7 +25719,7 @@
         </is>
       </c>
       <c r="AS214" s="3" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="AT214" t="n">
         <v>0.1513280291468057</v>
@@ -25836,7 +25836,7 @@
         </is>
       </c>
       <c r="AS215" s="3" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="AT215" t="n">
         <v>0.1513280291468057</v>
@@ -25960,7 +25960,7 @@
         </is>
       </c>
       <c r="AS216" s="3" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="AT216" t="n">
         <v>0.1513280291468057</v>
@@ -26063,7 +26063,7 @@
         </is>
       </c>
       <c r="AS217" s="3" t="n">
-        <v>2.383039924305246</v>
+        <v>1.287435332121339</v>
       </c>
       <c r="AT217" t="n">
         <v>0.06347286956587901</v>
@@ -26160,7 +26160,7 @@
         </is>
       </c>
       <c r="AS218" s="3" t="n">
-        <v>2.383039924305246</v>
+        <v>1.287435332121339</v>
       </c>
       <c r="AT218" t="n">
         <v>0.06347286956587901</v>
@@ -26293,7 +26293,7 @@
         </is>
       </c>
       <c r="AS219" s="3" t="n">
-        <v>2.383039924305246</v>
+        <v>1.287435332121339</v>
       </c>
       <c r="AT219" t="n">
         <v>0.06347286956587901</v>
@@ -26409,7 +26409,7 @@
         </is>
       </c>
       <c r="AS220" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT220" t="n">
         <v>0.09594586299227068</v>
@@ -26512,7 +26512,7 @@
         </is>
       </c>
       <c r="AS221" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT221" t="n">
         <v>0.09594586299227068</v>
@@ -26612,7 +26612,7 @@
         </is>
       </c>
       <c r="AS222" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT222" t="n">
         <v>0.09594586299227068</v>
@@ -26732,7 +26732,7 @@
         </is>
       </c>
       <c r="AS223" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT223" t="n">
         <v>0.09594586299227068</v>
@@ -26855,7 +26855,7 @@
         </is>
       </c>
       <c r="AS224" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT224" t="n">
         <v>0.09594586299227068</v>
@@ -26977,7 +26977,7 @@
         </is>
       </c>
       <c r="AS225" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT225" t="n">
         <v>0.09594586299227068</v>
@@ -27097,7 +27097,7 @@
         </is>
       </c>
       <c r="AS226" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT226" t="n">
         <v>0.09594586299227068</v>
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="AS227" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT227" t="n">
         <v>0.09594586299227068</v>
@@ -27323,7 +27323,7 @@
         </is>
       </c>
       <c r="AS228" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT228" t="n">
         <v>0.09594586299227068</v>
@@ -27445,7 +27445,7 @@
         </is>
       </c>
       <c r="AS229" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT229" t="n">
         <v>0.09594586299227068</v>
@@ -27548,7 +27548,7 @@
         </is>
       </c>
       <c r="AS230" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT230" t="n">
         <v>0.09594586299227068</v>
@@ -27671,7 +27671,7 @@
         </is>
       </c>
       <c r="AS231" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT231" t="n">
         <v>0.09594586299227068</v>
@@ -27794,7 +27794,7 @@
         </is>
       </c>
       <c r="AS232" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT232" t="n">
         <v>0.09594586299227068</v>
@@ -27905,7 +27905,7 @@
         </is>
       </c>
       <c r="AS233" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT233" t="n">
         <v>0.09594586299227068</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="AS234" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT234" t="n">
         <v>0.09594586299227068</v>
@@ -28131,7 +28131,7 @@
         </is>
       </c>
       <c r="AS235" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT235" t="n">
         <v>0.09594586299227068</v>
@@ -28253,7 +28253,7 @@
         </is>
       </c>
       <c r="AS236" s="3" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="AT236" t="n">
         <v>0.09594586299227068</v>
@@ -28370,7 +28370,7 @@
         </is>
       </c>
       <c r="AS237" s="3" t="n">
-        <v>2.307763558789464</v>
+        <v>0.9777793109060164</v>
       </c>
       <c r="AT237" t="n">
         <v>0.379435005293789</v>
@@ -28493,7 +28493,7 @@
         </is>
       </c>
       <c r="AS238" s="3" t="n">
-        <v>2.307763558789464</v>
+        <v>0.9777793109060164</v>
       </c>
       <c r="AT238" t="n">
         <v>0.379435005293789</v>
@@ -28599,7 +28599,7 @@
         </is>
       </c>
       <c r="AS239" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT239" t="n">
         <v>0.1114910328356543</v>
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="AS240" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT240" t="n">
         <v>0.1114910328356543</v>
@@ -28838,7 +28838,7 @@
         </is>
       </c>
       <c r="AS241" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT241" t="n">
         <v>0.1114910328356543</v>
@@ -28961,7 +28961,7 @@
         </is>
       </c>
       <c r="AS242" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT242" t="n">
         <v>0.1114910328356543</v>
@@ -29078,7 +29078,7 @@
         </is>
       </c>
       <c r="AS243" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT243" t="n">
         <v>0.1114910328356543</v>
@@ -29209,7 +29209,7 @@
         </is>
       </c>
       <c r="AS244" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT244" t="n">
         <v>0.1114910328356543</v>
@@ -29340,7 +29340,7 @@
         </is>
       </c>
       <c r="AS245" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT245" t="n">
         <v>0.1114910328356543</v>
@@ -29457,7 +29457,7 @@
         </is>
       </c>
       <c r="AS246" s="3" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="AT246" t="n">
         <v>0.1114910328356543</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="AS247" s="3" t="n">
-        <v>1.545581214964095</v>
+        <v>0.8149917991897823</v>
       </c>
       <c r="AT247" t="n">
         <v>0.04788962509012993</v>
@@ -29682,7 +29682,7 @@
         </is>
       </c>
       <c r="AS248" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT248" t="n">
         <v>0.2035544572556592</v>
@@ -29782,7 +29782,7 @@
         </is>
       </c>
       <c r="AS249" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT249" t="n">
         <v>0.2035544572556592</v>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="AS250" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT250" t="n">
         <v>0.2035544572556592</v>
@@ -30024,7 +30024,7 @@
         </is>
       </c>
       <c r="AS251" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT251" t="n">
         <v>0.2035544572556592</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="AS252" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT252" t="n">
         <v>0.2035544572556592</v>
@@ -30266,7 +30266,7 @@
         </is>
       </c>
       <c r="AS253" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT253" t="n">
         <v>0.2035544572556592</v>
@@ -30383,7 +30383,7 @@
         </is>
       </c>
       <c r="AS254" s="3" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="AT254" t="n">
         <v>0.2035544572556592</v>
@@ -30534,7 +30534,7 @@
         </is>
       </c>
       <c r="AS255" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT255" t="n">
         <v>0.8232165767767886</v>
@@ -30677,7 +30677,7 @@
         </is>
       </c>
       <c r="AS256" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT256" t="n">
         <v>0.8232165767767886</v>
@@ -30777,7 +30777,7 @@
         </is>
       </c>
       <c r="AS257" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT257" t="n">
         <v>0.8232165767767886</v>
@@ -30905,7 +30905,7 @@
         </is>
       </c>
       <c r="AS258" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT258" t="n">
         <v>0.8232165767767886</v>
@@ -31033,7 +31033,7 @@
         </is>
       </c>
       <c r="AS259" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT259" t="n">
         <v>0.8232165767767886</v>
@@ -31133,7 +31133,7 @@
         </is>
       </c>
       <c r="AS260" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT260" t="n">
         <v>0.8232165767767886</v>
@@ -31276,7 +31276,7 @@
         </is>
       </c>
       <c r="AS261" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT261" t="n">
         <v>0.8232165767767886</v>
@@ -31427,7 +31427,7 @@
         </is>
       </c>
       <c r="AS262" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT262" t="n">
         <v>0.8232165767767886</v>
@@ -31570,7 +31570,7 @@
         </is>
       </c>
       <c r="AS263" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT263" t="n">
         <v>0.8232165767767886</v>
@@ -31667,7 +31667,7 @@
         </is>
       </c>
       <c r="AS264" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT264" t="n">
         <v>0.8232165767767886</v>
@@ -31795,7 +31795,7 @@
         </is>
       </c>
       <c r="AS265" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT265" t="n">
         <v>0.8232165767767886</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="AS266" s="3" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="AT266" t="n">
         <v>0.8232165767767886</v>
@@ -32054,7 +32054,7 @@
         </is>
       </c>
       <c r="AS267" s="3" t="n">
-        <v>2.350308120023332</v>
+        <v>1.275959274575113</v>
       </c>
       <c r="AT267" t="n">
         <v>0.133574479883497</v>
@@ -32185,7 +32185,7 @@
         </is>
       </c>
       <c r="AS268" s="3" t="n">
-        <v>2.350308120023332</v>
+        <v>1.275959274575113</v>
       </c>
       <c r="AT268" t="n">
         <v>0.133574479883497</v>
@@ -32285,7 +32285,7 @@
         </is>
       </c>
       <c r="AS269" s="3" t="n">
-        <v>2.350308120023332</v>
+        <v>1.275959274575113</v>
       </c>
       <c r="AT269" t="n">
         <v>0.133574479883497</v>
@@ -32416,7 +32416,7 @@
         </is>
       </c>
       <c r="AS270" s="3" t="n">
-        <v>2.350308120023332</v>
+        <v>1.275959274575113</v>
       </c>
       <c r="AT270" t="n">
         <v>0.133574479883497</v>
@@ -32533,7 +32533,7 @@
         </is>
       </c>
       <c r="AS271" s="3" t="n">
-        <v>3.999273583904863</v>
+        <v>1.63651522140961</v>
       </c>
       <c r="AT271" t="n">
         <v>0.2325530126995237</v>
@@ -32650,7 +32650,7 @@
         </is>
       </c>
       <c r="AS272" s="3" t="n">
-        <v>3.999273583904863</v>
+        <v>1.63651522140961</v>
       </c>
       <c r="AT272" t="n">
         <v>0.2325530126995237</v>
@@ -32767,7 +32767,7 @@
         </is>
       </c>
       <c r="AS273" s="3" t="n">
-        <v>3.999273583904863</v>
+        <v>1.63651522140961</v>
       </c>
       <c r="AT273" t="n">
         <v>0.2325530126995237</v>
@@ -32892,7 +32892,7 @@
         </is>
       </c>
       <c r="AS274" s="3" t="n">
-        <v>2.263384913139956</v>
+        <v>0.9331639090610774</v>
       </c>
       <c r="AT274" t="n">
         <v>0.5407702970016294</v>
@@ -33017,7 +33017,7 @@
         </is>
       </c>
       <c r="AS275" s="3" t="n">
-        <v>2.263384913139956</v>
+        <v>0.9331639090610774</v>
       </c>
       <c r="AT275" t="n">
         <v>0.5407702970016294</v>
@@ -33134,7 +33134,7 @@
         </is>
       </c>
       <c r="AS276" s="3" t="n">
-        <v>2.24932582195783</v>
+        <v>1.04116526946995</v>
       </c>
       <c r="AT276" t="n">
         <v>0.1608901322012358</v>
@@ -33268,7 +33268,7 @@
         </is>
       </c>
       <c r="AS277" s="3" t="n">
-        <v>2.24932582195783</v>
+        <v>1.04116526946995</v>
       </c>
       <c r="AT277" t="n">
         <v>0.1608901322012358</v>
@@ -33385,7 +33385,7 @@
         </is>
       </c>
       <c r="AS278" s="3" t="n">
-        <v>3.31313285415499</v>
+        <v>1.667485856061042</v>
       </c>
       <c r="AT278" t="n">
         <v>0.1359977785764464</v>
@@ -33504,7 +33504,7 @@
         </is>
       </c>
       <c r="AS279" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT279" t="n">
         <v>0.2207636687418592</v>
@@ -33621,7 +33621,7 @@
         </is>
       </c>
       <c r="AS280" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT280" t="n">
         <v>0.2207636687418592</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="AS281" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT281" t="n">
         <v>0.2207636687418592</v>
@@ -33853,7 +33853,7 @@
         </is>
       </c>
       <c r="AS282" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT282" t="n">
         <v>0.2207636687418592</v>
@@ -33970,7 +33970,7 @@
         </is>
       </c>
       <c r="AS283" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT283" t="n">
         <v>0.2207636687418592</v>
@@ -34089,7 +34089,7 @@
         </is>
       </c>
       <c r="AS284" s="3" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="AT284" t="n">
         <v>0.2207636687418592</v>
@@ -34211,7 +34211,7 @@
         </is>
       </c>
       <c r="AS285" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT285" t="n">
         <v>0.137132192748197</v>
@@ -34328,7 +34328,7 @@
         </is>
       </c>
       <c r="AS286" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT286" t="n">
         <v>0.137132192748197</v>
@@ -34452,7 +34452,7 @@
         </is>
       </c>
       <c r="AS287" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT287" t="n">
         <v>0.137132192748197</v>
@@ -34552,7 +34552,7 @@
         </is>
       </c>
       <c r="AS288" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT288" t="n">
         <v>0.137132192748197</v>
@@ -34669,7 +34669,7 @@
         </is>
       </c>
       <c r="AS289" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT289" t="n">
         <v>0.137132192748197</v>
@@ -34794,7 +34794,7 @@
         </is>
       </c>
       <c r="AS290" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT290" t="n">
         <v>0.137132192748197</v>
@@ -34894,7 +34894,7 @@
         </is>
       </c>
       <c r="AS291" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT291" t="n">
         <v>0.137132192748197</v>
@@ -35016,7 +35016,7 @@
         </is>
       </c>
       <c r="AS292" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT292" t="n">
         <v>0.137132192748197</v>
@@ -35116,7 +35116,7 @@
         </is>
       </c>
       <c r="AS293" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT293" t="n">
         <v>0.137132192748197</v>
@@ -35240,7 +35240,7 @@
         </is>
       </c>
       <c r="AS294" s="3" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="AT294" t="n">
         <v>0.137132192748197</v>
@@ -35357,7 +35357,7 @@
         </is>
       </c>
       <c r="AS295" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT295" t="n">
         <v>0.1771278311135464</v>
@@ -35473,7 +35473,7 @@
         </is>
       </c>
       <c r="AS296" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT296" t="n">
         <v>0.1771278311135464</v>
@@ -35596,7 +35596,7 @@
         </is>
       </c>
       <c r="AS297" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT297" t="n">
         <v>0.1771278311135464</v>
@@ -35719,7 +35719,7 @@
         </is>
       </c>
       <c r="AS298" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT298" t="n">
         <v>0.1771278311135464</v>
@@ -35836,7 +35836,7 @@
         </is>
       </c>
       <c r="AS299" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT299" t="n">
         <v>0.1771278311135464</v>
@@ -35953,7 +35953,7 @@
         </is>
       </c>
       <c r="AS300" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT300" t="n">
         <v>0.1771278311135464</v>
@@ -36069,7 +36069,7 @@
         </is>
       </c>
       <c r="AS301" s="3" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="AT301" t="n">
         <v>0.1771278311135464</v>
@@ -36192,7 +36192,7 @@
         </is>
       </c>
       <c r="AS302" s="3" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="AT302" t="n">
         <v>0.1775835958383894</v>
@@ -36309,7 +36309,7 @@
         </is>
       </c>
       <c r="AS303" s="3" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="AT303" t="n">
         <v>0.1775835958383894</v>
@@ -36426,7 +36426,7 @@
         </is>
       </c>
       <c r="AS304" s="3" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="AT304" t="n">
         <v>0.1775835958383894</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="AS305" s="3" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="AT305" t="n">
         <v>0.1775835958383894</v>
@@ -36672,7 +36672,7 @@
         </is>
       </c>
       <c r="AS306" s="3" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="AT306" t="n">
         <v>0.1775835958383894</v>
@@ -36805,7 +36805,7 @@
         </is>
       </c>
       <c r="AS307" s="3" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="AT307" t="n">
         <v>0.008263142101277281</v>
@@ -36916,7 +36916,7 @@
         </is>
       </c>
       <c r="AS308" s="3" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="AT308" t="n">
         <v>0.008263142101277281</v>
@@ -37030,7 +37030,7 @@
         </is>
       </c>
       <c r="AS309" s="3" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="AT309" t="n">
         <v>0.008263142101277281</v>
@@ -37154,7 +37154,7 @@
         </is>
       </c>
       <c r="AS310" s="3" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="AT310" t="n">
         <v>0.008263142101277281</v>
@@ -37254,7 +37254,7 @@
         </is>
       </c>
       <c r="AS311" s="3" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="AT311" t="n">
         <v>0.008263142101277281</v>
@@ -37349,7 +37349,7 @@
         </is>
       </c>
       <c r="AS312" s="3" t="n">
-        <v>2.943115787703342</v>
+        <v>1.36618815393706</v>
       </c>
       <c r="AT312" t="n">
         <v>0.1975999548683922</v>
@@ -37457,7 +37457,7 @@
         </is>
       </c>
       <c r="AS313" s="3" t="n">
-        <v>2.818922554113672</v>
+        <v>1.392871620256168</v>
       </c>
       <c r="AT313" t="n">
         <v>0.09165258694621634</v>
@@ -37571,7 +37571,7 @@
         </is>
       </c>
       <c r="AS314" s="3" t="n">
-        <v>2.818922554113672</v>
+        <v>1.392871620256168</v>
       </c>
       <c r="AT314" t="n">
         <v>0.09165258694621634</v>
@@ -37688,7 +37688,7 @@
         </is>
       </c>
       <c r="AS315" s="3" t="n">
-        <v>2.818922554113672</v>
+        <v>1.392871620256168</v>
       </c>
       <c r="AT315" t="n">
         <v>0.09165258694621634</v>
@@ -37805,7 +37805,7 @@
         </is>
       </c>
       <c r="AS316" s="3" t="n">
-        <v>2.818922554113672</v>
+        <v>1.392871620256168</v>
       </c>
       <c r="AT316" t="n">
         <v>0.09165258694621634</v>
@@ -37928,7 +37928,7 @@
         </is>
       </c>
       <c r="AS317" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT317" t="n">
         <v>0.1376073144967325</v>
@@ -38045,7 +38045,7 @@
         </is>
       </c>
       <c r="AS318" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT318" t="n">
         <v>0.1376073144967325</v>
@@ -38145,7 +38145,7 @@
         </is>
       </c>
       <c r="AS319" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT319" t="n">
         <v>0.1376073144967325</v>
@@ -38242,7 +38242,7 @@
         </is>
       </c>
       <c r="AS320" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT320" t="n">
         <v>0.1376073144967325</v>
@@ -38359,7 +38359,7 @@
         </is>
       </c>
       <c r="AS321" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT321" t="n">
         <v>0.1376073144967325</v>
@@ -38476,7 +38476,7 @@
         </is>
       </c>
       <c r="AS322" s="3" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="AT322" t="n">
         <v>0.1376073144967325</v>
@@ -38592,7 +38592,7 @@
         </is>
       </c>
       <c r="AS323" s="3" t="n">
-        <v>4.17484189248606</v>
+        <v>1.592607625225318</v>
       </c>
       <c r="AT323" t="n">
         <v>0.1298224241282125</v>
@@ -38687,7 +38687,7 @@
         </is>
       </c>
       <c r="AS324" s="3" t="n">
-        <v>2.504256698509771</v>
+        <v>1.263736596385586</v>
       </c>
       <c r="AT324" t="n">
         <v>0.1014550599003086</v>
@@ -38804,7 +38804,7 @@
         </is>
       </c>
       <c r="AS325" s="3" t="n">
-        <v>2.919103309795085</v>
+        <v>1.5349365916537</v>
       </c>
       <c r="AT325" t="n">
         <v>0.03615252071064052</v>
@@ -38921,7 +38921,7 @@
         </is>
       </c>
       <c r="AS326" s="3" t="n">
-        <v>2.919103309795085</v>
+        <v>1.5349365916537</v>
       </c>
       <c r="AT326" t="n">
         <v>0.03615252071064052</v>
@@ -39038,7 +39038,7 @@
         </is>
       </c>
       <c r="AS327" s="3" t="n">
-        <v>2.919103309795085</v>
+        <v>1.5349365916537</v>
       </c>
       <c r="AT327" t="n">
         <v>0.03615252071064052</v>
@@ -39133,7 +39133,7 @@
         </is>
       </c>
       <c r="AS328" s="3" t="n">
-        <v>2.394538367210755</v>
+        <v>1.297701000823223</v>
       </c>
       <c r="AT328" t="n">
         <v>0.03774609523972932</v>
@@ -39241,7 +39241,7 @@
         </is>
       </c>
       <c r="AS329" s="3" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="AT329" t="n">
         <v>0.04206703420018245</v>
@@ -39364,7 +39364,7 @@
         </is>
       </c>
       <c r="AS330" s="3" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="AT330" t="n">
         <v>0.04206703420018245</v>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="AS331" s="3" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="AT331" t="n">
         <v>0.04206703420018245</v>
@@ -39599,7 +39599,7 @@
         </is>
       </c>
       <c r="AS332" s="3" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="AT332" t="n">
         <v>0.04206703420018245</v>
@@ -39722,7 +39722,7 @@
         </is>
       </c>
       <c r="AS333" s="3" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="AT333" t="n">
         <v>0.04206703420018245</v>
@@ -39839,7 +39839,7 @@
         </is>
       </c>
       <c r="AS334" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT334" t="n">
         <v>0.07320823092092027</v>
@@ -39970,7 +39970,7 @@
         </is>
       </c>
       <c r="AS335" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT335" t="n">
         <v>0.07320823092092027</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="AS336" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT336" t="n">
         <v>0.07320823092092027</v>
@@ -40210,7 +40210,7 @@
         </is>
       </c>
       <c r="AS337" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT337" t="n">
         <v>0.07320823092092027</v>
@@ -40341,7 +40341,7 @@
         </is>
       </c>
       <c r="AS338" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT338" t="n">
         <v>0.07320823092092027</v>
@@ -40472,7 +40472,7 @@
         </is>
       </c>
       <c r="AS339" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT339" t="n">
         <v>0.07320823092092027</v>
@@ -40603,7 +40603,7 @@
         </is>
       </c>
       <c r="AS340" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT340" t="n">
         <v>0.07320823092092027</v>
@@ -40734,7 +40734,7 @@
         </is>
       </c>
       <c r="AS341" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT341" t="n">
         <v>0.07320823092092027</v>
@@ -40865,7 +40865,7 @@
         </is>
       </c>
       <c r="AS342" s="3" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="AT342" t="n">
         <v>0.07320823092092027</v>
@@ -40973,7 +40973,7 @@
         </is>
       </c>
       <c r="AS343" s="3" t="n">
-        <v>2.47170589276985</v>
+        <v>1.314572316298722</v>
       </c>
       <c r="AT343" t="n">
         <v>0.08753724569161576</v>
@@ -41090,7 +41090,7 @@
         </is>
       </c>
       <c r="AS344" s="3" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="AT344" t="n">
         <v>0.1835678502113074</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="AS345" s="3" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="AT345" t="n">
         <v>0.1835678502113074</v>
@@ -41320,7 +41320,7 @@
         </is>
       </c>
       <c r="AS346" s="3" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="AT346" t="n">
         <v>0.1835678502113074</v>
@@ -41443,7 +41443,7 @@
         </is>
       </c>
       <c r="AS347" s="3" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="AT347" t="n">
         <v>0.1835678502113074</v>
@@ -41560,7 +41560,7 @@
         </is>
       </c>
       <c r="AS348" s="3" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="AT348" t="n">
         <v>0.1835678502113074</v>
@@ -41655,7 +41655,7 @@
         </is>
       </c>
       <c r="AS349" s="3" t="n">
-        <v>3.213365028164219</v>
+        <v>1.379172024884818</v>
       </c>
       <c r="AT349" t="n">
         <v>0.1473444455245342</v>
@@ -41780,7 +41780,7 @@
         </is>
       </c>
       <c r="AS350" s="3" t="n">
-        <v>2.61615476533384</v>
+        <v>1.121890629039936</v>
       </c>
       <c r="AT350" t="n">
         <v>0.2611236005584565</v>
@@ -41905,7 +41905,7 @@
         </is>
       </c>
       <c r="AS351" s="3" t="n">
-        <v>2.61615476533384</v>
+        <v>1.121890629039936</v>
       </c>
       <c r="AT351" t="n">
         <v>0.2611236005584565</v>
@@ -42030,7 +42030,7 @@
         </is>
       </c>
       <c r="AS352" s="3" t="n">
-        <v>2.61615476533384</v>
+        <v>1.121890629039936</v>
       </c>
       <c r="AT352" t="n">
         <v>0.2611236005584565</v>
@@ -42158,7 +42158,7 @@
         </is>
       </c>
       <c r="AS353" s="3" t="n">
-        <v>2.291355580839308</v>
+        <v>0.9928279178113213</v>
       </c>
       <c r="AT353" t="n">
         <v>0.102464772279545</v>
@@ -42275,7 +42275,7 @@
         </is>
       </c>
       <c r="AS354" s="3" t="n">
-        <v>2.291355580839308</v>
+        <v>0.9928279178113213</v>
       </c>
       <c r="AT354" t="n">
         <v>0.102464772279545</v>
@@ -42392,7 +42392,7 @@
         </is>
       </c>
       <c r="AS355" s="3" t="n">
-        <v>2.291355580839308</v>
+        <v>0.9928279178113213</v>
       </c>
       <c r="AT355" t="n">
         <v>0.102464772279545</v>
@@ -42520,7 +42520,7 @@
         </is>
       </c>
       <c r="AS356" s="3" t="n">
-        <v>2.291355580839308</v>
+        <v>0.9928279178113213</v>
       </c>
       <c r="AT356" t="n">
         <v>0.102464772279545</v>
@@ -42644,7 +42644,7 @@
         </is>
       </c>
       <c r="AS357" s="3" t="n">
-        <v>4.30430550707002</v>
+        <v>1.708143588750811</v>
       </c>
       <c r="AT357" t="n">
         <v>0.2608755247021081</v>
@@ -42761,7 +42761,7 @@
         </is>
       </c>
       <c r="AS358" s="3" t="n">
-        <v>4.30430550707002</v>
+        <v>1.708143588750811</v>
       </c>
       <c r="AT358" t="n">
         <v>0.2608755247021081</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="AS359" s="3" t="n">
-        <v>4.30430550707002</v>
+        <v>1.708143588750811</v>
       </c>
       <c r="AT359" t="n">
         <v>0.2608755247021081</v>
@@ -42982,7 +42982,7 @@
         </is>
       </c>
       <c r="AS360" s="3" t="n">
-        <v>3.645720757523585</v>
+        <v>1.578002180983566</v>
       </c>
       <c r="AT360" t="n">
         <v>0.2203066744580595</v>
@@ -43082,7 +43082,7 @@
         </is>
       </c>
       <c r="AS361" s="3" t="n">
-        <v>2.616483961664777</v>
+        <v>1.194190294626708</v>
       </c>
       <c r="AT361" t="n">
         <v>0.4955193430446513</v>
@@ -43182,7 +43182,7 @@
         </is>
       </c>
       <c r="AS362" s="3" t="n">
-        <v>2.616483961664777</v>
+        <v>1.194190294626708</v>
       </c>
       <c r="AT362" t="n">
         <v>0.4955193430446513</v>
@@ -43299,7 +43299,7 @@
         </is>
       </c>
       <c r="AS363" s="3" t="n">
-        <v>2.403339232683571</v>
+        <v>1.189224022538488</v>
       </c>
       <c r="AT363" t="n">
         <v>0.04979672609753513</v>
@@ -43430,7 +43430,7 @@
         </is>
       </c>
       <c r="AS364" s="3" t="n">
-        <v>2.403339232683571</v>
+        <v>1.189224022538488</v>
       </c>
       <c r="AT364" t="n">
         <v>0.04979672609753513</v>
@@ -43550,7 +43550,7 @@
         </is>
       </c>
       <c r="AS365" s="3" t="n">
-        <v>2.403339232683571</v>
+        <v>1.189224022538488</v>
       </c>
       <c r="AT365" t="n">
         <v>0.04979672609753513</v>
@@ -43684,7 +43684,7 @@
         </is>
       </c>
       <c r="AS366" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT366" t="n">
         <v>0.008037646088808068</v>
@@ -43801,7 +43801,7 @@
         </is>
       </c>
       <c r="AS367" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT367" t="n">
         <v>0.008037646088808068</v>
@@ -43935,7 +43935,7 @@
         </is>
       </c>
       <c r="AS368" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT368" t="n">
         <v>0.008037646088808068</v>
@@ -44052,7 +44052,7 @@
         </is>
       </c>
       <c r="AS369" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT369" t="n">
         <v>0.008037646088808068</v>
@@ -44169,7 +44169,7 @@
         </is>
       </c>
       <c r="AS370" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT370" t="n">
         <v>0.008037646088808068</v>
@@ -44303,7 +44303,7 @@
         </is>
       </c>
       <c r="AS371" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT371" t="n">
         <v>0.008037646088808068</v>
@@ -44420,7 +44420,7 @@
         </is>
       </c>
       <c r="AS372" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT372" t="n">
         <v>0.008037646088808068</v>
@@ -44554,7 +44554,7 @@
         </is>
       </c>
       <c r="AS373" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT373" t="n">
         <v>0.008037646088808068</v>
@@ -44688,7 +44688,7 @@
         </is>
       </c>
       <c r="AS374" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT374" t="n">
         <v>0.008037646088808068</v>
@@ -44805,7 +44805,7 @@
         </is>
       </c>
       <c r="AS375" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT375" t="n">
         <v>0.008037646088808068</v>
@@ -44939,7 +44939,7 @@
         </is>
       </c>
       <c r="AS376" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT376" t="n">
         <v>0.008037646088808068</v>
@@ -45056,7 +45056,7 @@
         </is>
       </c>
       <c r="AS377" s="3" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="AT377" t="n">
         <v>0.008037646088808068</v>
@@ -45175,7 +45175,7 @@
         </is>
       </c>
       <c r="AS378" s="3" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="AT378" t="n">
         <v>0.1403319244780108</v>
@@ -45298,7 +45298,7 @@
         </is>
       </c>
       <c r="AS379" s="3" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="AT379" t="n">
         <v>0.1403319244780108</v>
@@ -45422,7 +45422,7 @@
         </is>
       </c>
       <c r="AS380" s="3" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="AT380" t="n">
         <v>0.1403319244780108</v>
@@ -45539,7 +45539,7 @@
         </is>
       </c>
       <c r="AS381" s="3" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="AT381" t="n">
         <v>0.1403319244780108</v>
@@ -45659,7 +45659,7 @@
         </is>
       </c>
       <c r="AS382" s="3" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="AT382" t="n">
         <v>0.1403319244780108</v>
@@ -45783,7 +45783,7 @@
         </is>
       </c>
       <c r="AS383" s="3" t="n">
-        <v>4.437734472934238</v>
+        <v>1.705312077910025</v>
       </c>
       <c r="AT383" t="n">
         <v>0.1992750872370643</v>
@@ -45911,7 +45911,7 @@
         </is>
       </c>
       <c r="AS384" s="3" t="n">
-        <v>4.437734472934238</v>
+        <v>1.705312077910025</v>
       </c>
       <c r="AT384" t="n">
         <v>0.1992750872370643</v>
@@ -46037,7 +46037,7 @@
         </is>
       </c>
       <c r="AS385" s="3" t="n">
-        <v>4.437734472934238</v>
+        <v>1.705312077910025</v>
       </c>
       <c r="AT385" t="n">
         <v>0.1992750872370643</v>
@@ -46154,7 +46154,7 @@
         </is>
       </c>
       <c r="AS386" s="3" t="n">
-        <v>4.437734472934238</v>
+        <v>1.705312077910025</v>
       </c>
       <c r="AT386" t="n">
         <v>0.1992750872370643</v>
@@ -46277,7 +46277,7 @@
         </is>
       </c>
       <c r="AS387" s="3" t="n">
-        <v>2.762635147408335</v>
+        <v>1.379379245386464</v>
       </c>
       <c r="AT387" t="n">
         <v>0.2773906100304526</v>
@@ -46394,7 +46394,7 @@
         </is>
       </c>
       <c r="AS388" s="3" t="n">
-        <v>2.762635147408335</v>
+        <v>1.379379245386464</v>
       </c>
       <c r="AT388" t="n">
         <v>0.2773906100304526</v>
@@ -46517,7 +46517,7 @@
         </is>
       </c>
       <c r="AS389" s="3" t="n">
-        <v>2.762635147408335</v>
+        <v>1.379379245386464</v>
       </c>
       <c r="AT389" t="n">
         <v>0.2773906100304526</v>
@@ -46612,7 +46612,7 @@
         </is>
       </c>
       <c r="AS390" s="3" t="n">
-        <v>2.935243543633551</v>
+        <v>1.600037829368459</v>
       </c>
       <c r="AT390" t="n">
         <v>0.02583489149284442</v>
@@ -46740,7 +46740,7 @@
         </is>
       </c>
       <c r="AS391" s="3" t="n">
-        <v>2.599821472886179</v>
+        <v>1.306707634809652</v>
       </c>
       <c r="AT391" t="n">
         <v>0.07303122186760364</v>
@@ -46868,7 +46868,7 @@
         </is>
       </c>
       <c r="AS392" s="3" t="n">
-        <v>2.599821472886179</v>
+        <v>1.306707634809652</v>
       </c>
       <c r="AT392" t="n">
         <v>0.07303122186760364</v>
@@ -46996,7 +46996,7 @@
         </is>
       </c>
       <c r="AS393" s="3" t="n">
-        <v>2.599821472886179</v>
+        <v>1.306707634809652</v>
       </c>
       <c r="AT393" t="n">
         <v>0.07303122186760364</v>
@@ -47124,7 +47124,7 @@
         </is>
       </c>
       <c r="AS394" s="3" t="n">
-        <v>2.696956273976794</v>
+        <v>1.135424152929636</v>
       </c>
       <c r="AT394" t="n">
         <v>0.09323008498642663</v>
@@ -47252,7 +47252,7 @@
         </is>
       </c>
       <c r="AS395" s="3" t="n">
-        <v>2.696956273976794</v>
+        <v>1.135424152929636</v>
       </c>
       <c r="AT395" t="n">
         <v>0.09323008498642663</v>
@@ -47369,7 +47369,7 @@
         </is>
       </c>
       <c r="AS396" s="3" t="n">
-        <v>2.503995310793595</v>
+        <v>1.250400349316707</v>
       </c>
       <c r="AT396" t="n">
         <v>0.07615125679906519</v>
@@ -47492,7 +47492,7 @@
         </is>
       </c>
       <c r="AS397" s="3" t="n">
-        <v>2.503995310793595</v>
+        <v>1.250400349316707</v>
       </c>
       <c r="AT397" t="n">
         <v>0.07615125679906519</v>
@@ -47605,7 +47605,7 @@
         </is>
       </c>
       <c r="AS398" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT398" t="n">
         <v>0.09181954465370175</v>
@@ -47739,7 +47739,7 @@
         </is>
       </c>
       <c r="AS399" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT399" t="n">
         <v>0.09181954465370175</v>
@@ -47870,7 +47870,7 @@
         </is>
       </c>
       <c r="AS400" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT400" t="n">
         <v>0.09181954465370175</v>
@@ -47970,7 +47970,7 @@
         </is>
       </c>
       <c r="AS401" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT401" t="n">
         <v>0.09181954465370175</v>
@@ -48112,7 +48112,7 @@
         </is>
       </c>
       <c r="AS402" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT402" t="n">
         <v>0.09181954465370175</v>
@@ -48229,7 +48229,7 @@
         </is>
       </c>
       <c r="AS403" s="3" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="AT403" t="n">
         <v>0.09181954465370175</v>
@@ -48342,7 +48342,7 @@
         </is>
       </c>
       <c r="AS404" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT404" t="n">
         <v>0.008448057316774078</v>
@@ -48458,7 +48458,7 @@
         </is>
       </c>
       <c r="AS405" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT405" t="n">
         <v>0.008448057316774078</v>
@@ -48575,7 +48575,7 @@
         </is>
       </c>
       <c r="AS406" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT406" t="n">
         <v>0.008448057316774078</v>
@@ -48698,7 +48698,7 @@
         </is>
       </c>
       <c r="AS407" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT407" t="n">
         <v>0.008448057316774078</v>
@@ -48815,7 +48815,7 @@
         </is>
       </c>
       <c r="AS408" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT408" t="n">
         <v>0.008448057316774078</v>
@@ -48938,7 +48938,7 @@
         </is>
       </c>
       <c r="AS409" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT409" t="n">
         <v>0.008448057316774078</v>
@@ -49054,7 +49054,7 @@
         </is>
       </c>
       <c r="AS410" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT410" t="n">
         <v>0.008448057316774078</v>
@@ -49177,7 +49177,7 @@
         </is>
       </c>
       <c r="AS411" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT411" t="n">
         <v>0.008448057316774078</v>
@@ -49274,7 +49274,7 @@
         </is>
       </c>
       <c r="AS412" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT412" t="n">
         <v>0.008448057316774078</v>
@@ -49397,7 +49397,7 @@
         </is>
       </c>
       <c r="AS413" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT413" t="n">
         <v>0.008448057316774078</v>
@@ -49514,7 +49514,7 @@
         </is>
       </c>
       <c r="AS414" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT414" t="n">
         <v>0.008448057316774078</v>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="AS415" s="3" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="AT415" t="n">
         <v>0.008448057316774078</v>
@@ -49744,7 +49744,7 @@
         </is>
       </c>
       <c r="AS416" s="3" t="n">
-        <v>3.957300998980909</v>
+        <v>1.653980222479582</v>
       </c>
       <c r="AT416" t="n">
         <v>0.1185920805311684</v>
@@ -49864,7 +49864,7 @@
         </is>
       </c>
       <c r="AS417" s="3" t="n">
-        <v>3.957300998980909</v>
+        <v>1.653980222479582</v>
       </c>
       <c r="AT417" t="n">
         <v>0.1185920805311684</v>
@@ -49988,7 +49988,7 @@
         </is>
       </c>
       <c r="AS418" s="3" t="n">
-        <v>3.957300998980909</v>
+        <v>1.653980222479582</v>
       </c>
       <c r="AT418" t="n">
         <v>0.1185920805311684</v>
@@ -50105,7 +50105,7 @@
         </is>
       </c>
       <c r="AS419" s="3" t="n">
-        <v>4.558397217791285</v>
+        <v>1.763368107612258</v>
       </c>
       <c r="AT419" t="n">
         <v>0.116428522668727</v>
@@ -50219,7 +50219,7 @@
         </is>
       </c>
       <c r="AS420" s="3" t="n">
-        <v>4.558397217791285</v>
+        <v>1.763368107612258</v>
       </c>
       <c r="AT420" t="n">
         <v>0.116428522668727</v>
@@ -50350,7 +50350,7 @@
         </is>
       </c>
       <c r="AS421" s="3" t="n">
-        <v>2.941009087664635</v>
+        <v>1.53353245140228</v>
       </c>
       <c r="AT421" t="n">
         <v>0.08934897398429788</v>
@@ -50474,7 +50474,7 @@
         </is>
       </c>
       <c r="AS422" s="3" t="n">
-        <v>2.941009087664635</v>
+        <v>1.53353245140228</v>
       </c>
       <c r="AT422" t="n">
         <v>0.08934897398429788</v>
@@ -50597,7 +50597,7 @@
         </is>
       </c>
       <c r="AS423" s="3" t="n">
-        <v>2.941009087664635</v>
+        <v>1.53353245140228</v>
       </c>
       <c r="AT423" t="n">
         <v>0.08934897398429788</v>
@@ -50717,7 +50717,7 @@
         </is>
       </c>
       <c r="AS424" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT424" t="n">
         <v>0.08714107798519238</v>
@@ -50840,7 +50840,7 @@
         </is>
       </c>
       <c r="AS425" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT425" t="n">
         <v>0.08714107798519238</v>
@@ -50963,7 +50963,7 @@
         </is>
       </c>
       <c r="AS426" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT426" t="n">
         <v>0.08714107798519238</v>
@@ -51080,7 +51080,7 @@
         </is>
       </c>
       <c r="AS427" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT427" t="n">
         <v>0.08714107798519238</v>
@@ -51203,7 +51203,7 @@
         </is>
       </c>
       <c r="AS428" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT428" t="n">
         <v>0.08714107798519238</v>
@@ -51326,7 +51326,7 @@
         </is>
       </c>
       <c r="AS429" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT429" t="n">
         <v>0.08714107798519238</v>
@@ -51449,7 +51449,7 @@
         </is>
       </c>
       <c r="AS430" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT430" t="n">
         <v>0.08714107798519238</v>
@@ -51569,7 +51569,7 @@
         </is>
       </c>
       <c r="AS431" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT431" t="n">
         <v>0.08714107798519238</v>
@@ -51686,7 +51686,7 @@
         </is>
       </c>
       <c r="AS432" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT432" t="n">
         <v>0.08714107798519238</v>
@@ -51809,7 +51809,7 @@
         </is>
       </c>
       <c r="AS433" s="3" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="AT433" t="n">
         <v>0.08714107798519238</v>
@@ -51940,7 +51940,7 @@
         </is>
       </c>
       <c r="AS434" s="3" t="n">
-        <v>5.241568299772543</v>
+        <v>2.099984059599319</v>
       </c>
       <c r="AT434" t="n">
         <v>0.1128575251333561</v>
@@ -52064,7 +52064,7 @@
         </is>
       </c>
       <c r="AS435" s="3" t="n">
-        <v>5.241568299772543</v>
+        <v>2.099984059599319</v>
       </c>
       <c r="AT435" t="n">
         <v>0.1128575251333561</v>
@@ -52183,7 +52183,7 @@
         </is>
       </c>
       <c r="AS436" s="3" t="n">
-        <v>2.875494593409262</v>
+        <v>1.356844037186577</v>
       </c>
       <c r="AT436" t="n">
         <v>0.06366793816444885</v>
@@ -52289,7 +52289,7 @@
         </is>
       </c>
       <c r="AS437" s="3" t="n">
-        <v>2.875494593409262</v>
+        <v>1.356844037186577</v>
       </c>
       <c r="AT437" t="n">
         <v>0.06366793816444885</v>
@@ -52412,7 +52412,7 @@
         </is>
       </c>
       <c r="AS438" s="3" t="n">
-        <v>2.875494593409262</v>
+        <v>1.356844037186577</v>
       </c>
       <c r="AT438" t="n">
         <v>0.06366793816444885</v>
@@ -52529,7 +52529,7 @@
         </is>
       </c>
       <c r="AS439" s="3" t="n">
-        <v>2.875494593409262</v>
+        <v>1.356844037186577</v>
       </c>
       <c r="AT439" t="n">
         <v>0.06366793816444885</v>
@@ -52646,7 +52646,7 @@
         </is>
       </c>
       <c r="AS440" s="3" t="n">
-        <v>2.712206410208404</v>
+        <v>1.394421974344441</v>
       </c>
       <c r="AT440" t="n">
         <v>0.1317721205381595</v>
@@ -52769,7 +52769,7 @@
         </is>
       </c>
       <c r="AS441" s="3" t="n">
-        <v>2.712206410208404</v>
+        <v>1.394421974344441</v>
       </c>
       <c r="AT441" t="n">
         <v>0.1317721205381595</v>
@@ -52892,7 +52892,7 @@
         </is>
       </c>
       <c r="AS442" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT442" t="n">
         <v>0.1378594413692872</v>
@@ -53012,7 +53012,7 @@
         </is>
       </c>
       <c r="AS443" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT443" t="n">
         <v>0.1378594413692872</v>
@@ -53138,7 +53138,7 @@
         </is>
       </c>
       <c r="AS444" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT444" t="n">
         <v>0.1378594413692872</v>
@@ -53255,7 +53255,7 @@
         </is>
       </c>
       <c r="AS445" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT445" t="n">
         <v>0.1378594413692872</v>
@@ -53355,7 +53355,7 @@
         </is>
       </c>
       <c r="AS446" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT446" t="n">
         <v>0.1378594413692872</v>
@@ -53479,7 +53479,7 @@
         </is>
       </c>
       <c r="AS447" s="3" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="AT447" t="n">
         <v>0.1378594413692872</v>
@@ -53596,7 +53596,7 @@
         </is>
       </c>
       <c r="AS448" s="3" t="n">
-        <v>4.305402572693534</v>
+        <v>1.794259160588362</v>
       </c>
       <c r="AT448" t="n">
         <v>0.08812374421769839</v>
@@ -53716,7 +53716,7 @@
         </is>
       </c>
       <c r="AS449" s="3" t="n">
-        <v>4.305402572693534</v>
+        <v>1.794259160588362</v>
       </c>
       <c r="AT449" t="n">
         <v>0.08812374421769839</v>
@@ -53833,7 +53833,7 @@
         </is>
       </c>
       <c r="AS450" s="3" t="n">
-        <v>2.457968116958373</v>
+        <v>1.182535083280483</v>
       </c>
       <c r="AT450" t="n">
         <v>0.1067379301540999</v>
@@ -53941,7 +53941,7 @@
         </is>
       </c>
       <c r="AS451" s="3" t="n">
-        <v>2.457968116958373</v>
+        <v>1.182535083280483</v>
       </c>
       <c r="AT451" t="n">
         <v>0.1067379301540999</v>
@@ -54058,7 +54058,7 @@
         </is>
       </c>
       <c r="AS452" s="3" t="n">
-        <v>2.457968116958373</v>
+        <v>1.182535083280483</v>
       </c>
       <c r="AT452" t="n">
         <v>0.1067379301540999</v>
@@ -54153,7 +54153,7 @@
         </is>
       </c>
       <c r="AS453" s="3" t="n">
-        <v>5.15799789091322</v>
+        <v>1.985986889365834</v>
       </c>
       <c r="AT453" t="n">
         <v>0.1725927821979303</v>
@@ -54248,7 +54248,7 @@
         </is>
       </c>
       <c r="AS454" s="3" t="n">
-        <v>5.15799789091322</v>
+        <v>1.985986889365834</v>
       </c>
       <c r="AT454" t="n">
         <v>0.1725927821979303</v>
@@ -54365,7 +54365,7 @@
         </is>
       </c>
       <c r="AS455" s="3" t="n">
-        <v>3.664544067827503</v>
+        <v>1.380187257025634</v>
       </c>
       <c r="AT455" t="n">
         <v>0.1176187716426007</v>
@@ -54482,7 +54482,7 @@
         </is>
       </c>
       <c r="AS456" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT456" t="n">
         <v>0.04887015925767356</v>
@@ -54590,7 +54590,7 @@
         </is>
       </c>
       <c r="AS457" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT457" t="n">
         <v>0.04887015925767356</v>
@@ -54713,7 +54713,7 @@
         </is>
       </c>
       <c r="AS458" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT458" t="n">
         <v>0.04887015925767356</v>
@@ -54810,7 +54810,7 @@
         </is>
       </c>
       <c r="AS459" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT459" t="n">
         <v>0.04887015925767356</v>
@@ -54941,7 +54941,7 @@
         </is>
       </c>
       <c r="AS460" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT460" t="n">
         <v>0.04887015925767356</v>
@@ -55072,7 +55072,7 @@
         </is>
       </c>
       <c r="AS461" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT461" t="n">
         <v>0.04887015925767356</v>
@@ -55189,7 +55189,7 @@
         </is>
       </c>
       <c r="AS462" s="3" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="AT462" t="n">
         <v>0.04887015925767356</v>
@@ -55309,7 +55309,7 @@
         </is>
       </c>
       <c r="AS463" s="3" t="n">
-        <v>2.967946831451138</v>
+        <v>1.476751780565747</v>
       </c>
       <c r="AT463" t="n">
         <v>0.03638254666203618</v>
@@ -55429,7 +55429,7 @@
         </is>
       </c>
       <c r="AS464" s="3" t="n">
-        <v>2.967946831451138</v>
+        <v>1.476751780565747</v>
       </c>
       <c r="AT464" t="n">
         <v>0.03638254666203618</v>
@@ -55549,7 +55549,7 @@
         </is>
       </c>
       <c r="AS465" s="3" t="n">
-        <v>2.967946831451138</v>
+        <v>1.476751780565747</v>
       </c>
       <c r="AT465" t="n">
         <v>0.03638254666203618</v>
@@ -55655,7 +55655,7 @@
         </is>
       </c>
       <c r="AS466" s="3" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="AT466" t="n">
         <v>0.1062120290735466</v>
@@ -55778,7 +55778,7 @@
         </is>
       </c>
       <c r="AS467" s="3" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="AT467" t="n">
         <v>0.1062120290735466</v>
@@ -55895,7 +55895,7 @@
         </is>
       </c>
       <c r="AS468" s="3" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="AT468" t="n">
         <v>0.1062120290735466</v>
@@ -56018,7 +56018,7 @@
         </is>
       </c>
       <c r="AS469" s="3" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="AT469" t="n">
         <v>0.1062120290735466</v>
@@ -56118,7 +56118,7 @@
         </is>
       </c>
       <c r="AS470" s="3" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="AT470" t="n">
         <v>0.1062120290735466</v>
@@ -56241,7 +56241,7 @@
         </is>
       </c>
       <c r="AS471" s="3" t="n">
-        <v>3.607124915946495</v>
+        <v>1.682301876414897</v>
       </c>
       <c r="AT471" t="n">
         <v>0.08967210472782487</v>
@@ -56358,7 +56358,7 @@
         </is>
       </c>
       <c r="AS472" s="3" t="n">
-        <v>3.607124915946495</v>
+        <v>1.682301876414897</v>
       </c>
       <c r="AT472" t="n">
         <v>0.08967210472782487</v>
@@ -56475,7 +56475,7 @@
         </is>
       </c>
       <c r="AS473" s="3" t="n">
-        <v>5.901927723994929</v>
+        <v>2.321650769351456</v>
       </c>
       <c r="AT473" t="n">
         <v>0.0992497281000682</v>
@@ -56603,7 +56603,7 @@
         </is>
       </c>
       <c r="AS474" s="3" t="n">
-        <v>5.901927723994929</v>
+        <v>2.321650769351456</v>
       </c>
       <c r="AT474" t="n">
         <v>0.0992497281000682</v>
@@ -56723,7 +56723,7 @@
         </is>
       </c>
       <c r="AS475" s="3" t="n">
-        <v>5.901927723994929</v>
+        <v>2.321650769351456</v>
       </c>
       <c r="AT475" t="n">
         <v>0.0992497281000682</v>
@@ -56846,7 +56846,7 @@
         </is>
       </c>
       <c r="AS476" s="3" t="n">
-        <v>3.488073107534592</v>
+        <v>1.625699004607307</v>
       </c>
       <c r="AT476" t="n">
         <v>0.05179426049229691</v>
@@ -56968,7 +56968,7 @@
         </is>
       </c>
       <c r="AS477" s="3" t="n">
-        <v>3.488073107534592</v>
+        <v>1.625699004607307</v>
       </c>
       <c r="AT477" t="n">
         <v>0.05179426049229691</v>
@@ -57063,7 +57063,7 @@
         </is>
       </c>
       <c r="AS478" s="3" t="n">
-        <v>3.171305491763288</v>
+        <v>1.576052438345598</v>
       </c>
       <c r="AT478" t="n">
         <v>0.05998619476905618</v>
@@ -57158,7 +57158,7 @@
         </is>
       </c>
       <c r="AS479" s="3" t="n">
-        <v>3.171305491763288</v>
+        <v>1.576052438345598</v>
       </c>
       <c r="AT479" t="n">
         <v>0.05998619476905618</v>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="AS480" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT480" t="n">
         <v>0.07081246154965344</v>
@@ -57383,7 +57383,7 @@
         </is>
       </c>
       <c r="AS481" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT481" t="n">
         <v>0.07081246154965344</v>
@@ -57500,7 +57500,7 @@
         </is>
       </c>
       <c r="AS482" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT482" t="n">
         <v>0.07081246154965344</v>
@@ -57629,7 +57629,7 @@
         </is>
       </c>
       <c r="AS483" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT483" t="n">
         <v>0.07081246154965344</v>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="AS484" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT484" t="n">
         <v>0.07081246154965344</v>
@@ -57852,7 +57852,7 @@
         </is>
       </c>
       <c r="AS485" s="3" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="AT485" t="n">
         <v>0.07081246154965344</v>
@@ -57969,7 +57969,7 @@
         </is>
       </c>
       <c r="AS486" s="3" t="n">
-        <v>3.201094066141516</v>
+        <v>1.353551300878296</v>
       </c>
       <c r="AT486" t="n">
         <v>0.1143107870462943</v>
@@ -58094,7 +58094,7 @@
         </is>
       </c>
       <c r="AS487" s="3" t="n">
-        <v>3.201094066141516</v>
+        <v>1.353551300878296</v>
       </c>
       <c r="AT487" t="n">
         <v>0.1143107870462943</v>
@@ -58194,7 +58194,7 @@
         </is>
       </c>
       <c r="AS488" s="3" t="n">
-        <v>3.201094066141516</v>
+        <v>1.353551300878296</v>
       </c>
       <c r="AT488" t="n">
         <v>0.1143107870462943</v>
@@ -58311,7 +58311,7 @@
         </is>
       </c>
       <c r="AS489" s="3" t="n">
-        <v>3.201094066141516</v>
+        <v>1.353551300878296</v>
       </c>
       <c r="AT489" t="n">
         <v>0.1143107870462943</v>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="AS490" s="3" t="n">
-        <v>3.039383656331229</v>
+        <v>1.549962588480364</v>
       </c>
       <c r="AT490" t="n">
         <v>0.07812237704895465</v>
@@ -58528,7 +58528,7 @@
         </is>
       </c>
       <c r="AS491" s="3" t="n">
-        <v>3.039383656331229</v>
+        <v>1.549962588480364</v>
       </c>
       <c r="AT491" t="n">
         <v>0.07812237704895465</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="AS492" s="3" t="n">
-        <v>3.039383656331229</v>
+        <v>1.549962588480364</v>
       </c>
       <c r="AT492" t="n">
         <v>0.07812237704895465</v>
@@ -58764,7 +58764,7 @@
         </is>
       </c>
       <c r="AS493" s="3" t="n">
-        <v>2.905749839444801</v>
+        <v>1.182135319522463</v>
       </c>
       <c r="AT493" t="n">
         <v>0.1997918712296322</v>
@@ -58864,7 +58864,7 @@
         </is>
       </c>
       <c r="AS494" s="3" t="n">
-        <v>2.905749839444801</v>
+        <v>1.182135319522463</v>
       </c>
       <c r="AT494" t="n">
         <v>0.1997918712296322</v>
@@ -58964,7 +58964,7 @@
         </is>
       </c>
       <c r="AS495" s="3" t="n">
-        <v>2.905749839444801</v>
+        <v>1.182135319522463</v>
       </c>
       <c r="AT495" t="n">
         <v>0.1997918712296322</v>
@@ -59063,7 +59063,7 @@
         </is>
       </c>
       <c r="AS496" s="3" t="n">
-        <v>2.905749839444801</v>
+        <v>1.182135319522463</v>
       </c>
       <c r="AT496" t="n">
         <v>0.1997918712296322</v>
@@ -59194,7 +59194,7 @@
         </is>
       </c>
       <c r="AS497" s="3" t="n">
-        <v>2.588426512958271</v>
+        <v>1.12394935783787</v>
       </c>
       <c r="AT497" t="n">
         <v>0.09834907192347191</v>
@@ -59308,7 +59308,7 @@
         </is>
       </c>
       <c r="AS498" s="3" t="n">
-        <v>2.588426512958271</v>
+        <v>1.12394935783787</v>
       </c>
       <c r="AT498" t="n">
         <v>0.09834907192347191</v>
@@ -59431,7 +59431,7 @@
         </is>
       </c>
       <c r="AS499" s="3" t="n">
-        <v>5.439205783323088</v>
+        <v>2.347913984338409</v>
       </c>
       <c r="AT499" t="n">
         <v>0.1024083661967025</v>
@@ -59550,7 +59550,7 @@
         </is>
       </c>
       <c r="AS500" s="3" t="n">
-        <v>5.439205783323088</v>
+        <v>2.347913984338409</v>
       </c>
       <c r="AT500" t="n">
         <v>0.1024083661967025</v>
@@ -59673,7 +59673,7 @@
         </is>
       </c>
       <c r="AS501" s="3" t="n">
-        <v>4.538076886846752</v>
+        <v>3.121276487199821</v>
       </c>
       <c r="AT501" t="n">
         <v>0.0962154617247243</v>
@@ -59796,7 +59796,7 @@
         </is>
       </c>
       <c r="AS502" s="3" t="n">
-        <v>4.538076886846752</v>
+        <v>3.121276487199821</v>
       </c>
       <c r="AT502" t="n">
         <v>0.0962154617247243</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="AS503" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT503" t="n">
         <v>0.007675929384025423</v>
@@ -60027,7 +60027,7 @@
         </is>
       </c>
       <c r="AS504" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT504" t="n">
         <v>0.007675929384025423</v>
@@ -60144,7 +60144,7 @@
         </is>
       </c>
       <c r="AS505" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT505" t="n">
         <v>0.007675929384025423</v>
@@ -60272,7 +60272,7 @@
         </is>
       </c>
       <c r="AS506" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT506" t="n">
         <v>0.007675929384025423</v>
@@ -60369,7 +60369,7 @@
         </is>
       </c>
       <c r="AS507" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT507" t="n">
         <v>0.007675929384025423</v>
@@ -60486,7 +60486,7 @@
         </is>
       </c>
       <c r="AS508" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT508" t="n">
         <v>0.007675929384025423</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="AS509" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT509" t="n">
         <v>0.007675929384025423</v>
@@ -60725,7 +60725,7 @@
         </is>
       </c>
       <c r="AS510" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT510" t="n">
         <v>0.007675929384025423</v>
@@ -60825,7 +60825,7 @@
         </is>
       </c>
       <c r="AS511" s="3" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="AT511" t="n">
         <v>0.007675929384025423</v>
@@ -60925,7 +60925,7 @@
         </is>
       </c>
       <c r="AS512" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT512" t="n">
         <v>0.08131970648614946</v>
@@ -61051,7 +61051,7 @@
         </is>
       </c>
       <c r="AS513" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT513" t="n">
         <v>0.08131970648614946</v>
@@ -61177,7 +61177,7 @@
         </is>
       </c>
       <c r="AS514" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT514" t="n">
         <v>0.08131970648614946</v>
@@ -61277,7 +61277,7 @@
         </is>
       </c>
       <c r="AS515" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT515" t="n">
         <v>0.08131970648614946</v>
@@ -61377,7 +61377,7 @@
         </is>
       </c>
       <c r="AS516" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT516" t="n">
         <v>0.08131970648614946</v>
@@ -61503,7 +61503,7 @@
         </is>
       </c>
       <c r="AS517" s="3" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="AT517" t="n">
         <v>0.08131970648614946</v>
@@ -61603,7 +61603,7 @@
         </is>
       </c>
       <c r="AS518" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT518" t="n">
         <v>0.2883504251737799</v>
@@ -61719,7 +61719,7 @@
         </is>
       </c>
       <c r="AS519" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT519" t="n">
         <v>0.2883504251737799</v>
@@ -61819,7 +61819,7 @@
         </is>
       </c>
       <c r="AS520" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT520" t="n">
         <v>0.2883504251737799</v>
@@ -61918,7 +61918,7 @@
         </is>
       </c>
       <c r="AS521" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT521" t="n">
         <v>0.2883504251737799</v>
@@ -62035,7 +62035,7 @@
         </is>
       </c>
       <c r="AS522" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT522" t="n">
         <v>0.2883504251737799</v>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="AS523" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT523" t="n">
         <v>0.2883504251737799</v>
@@ -62275,7 +62275,7 @@
         </is>
       </c>
       <c r="AS524" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT524" t="n">
         <v>0.2883504251737799</v>
@@ -62375,7 +62375,7 @@
         </is>
       </c>
       <c r="AS525" s="3" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="AT525" t="n">
         <v>0.2883504251737799</v>
@@ -62512,7 +62512,7 @@
         </is>
       </c>
       <c r="AS526" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT526" t="n">
         <v>0.09414370006904585</v>
@@ -62643,7 +62643,7 @@
         </is>
       </c>
       <c r="AS527" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT527" t="n">
         <v>0.09414370006904585</v>
@@ -62743,7 +62743,7 @@
         </is>
       </c>
       <c r="AS528" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT528" t="n">
         <v>0.09414370006904585</v>
@@ -62874,7 +62874,7 @@
         </is>
       </c>
       <c r="AS529" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT529" t="n">
         <v>0.09414370006904585</v>
@@ -62974,7 +62974,7 @@
         </is>
       </c>
       <c r="AS530" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT530" t="n">
         <v>0.09414370006904585</v>
@@ -63111,7 +63111,7 @@
         </is>
       </c>
       <c r="AS531" s="3" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="AT531" t="n">
         <v>0.09414370006904585</v>
@@ -63228,7 +63228,7 @@
         </is>
       </c>
       <c r="AS532" s="3" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="AT532" t="n">
         <v>0.2367704546742245</v>
@@ -63356,7 +63356,7 @@
         </is>
       </c>
       <c r="AS533" s="3" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="AT533" t="n">
         <v>0.2367704546742245</v>
@@ -63473,7 +63473,7 @@
         </is>
       </c>
       <c r="AS534" s="3" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="AT534" t="n">
         <v>0.2367704546742245</v>
@@ -63596,7 +63596,7 @@
         </is>
       </c>
       <c r="AS535" s="3" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="AT535" t="n">
         <v>0.2367704546742245</v>
@@ -63710,7 +63710,7 @@
         </is>
       </c>
       <c r="AS536" s="3" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="AT536" t="n">
         <v>0.2367704546742245</v>
@@ -63821,7 +63821,7 @@
         </is>
       </c>
       <c r="AS537" s="3" t="n">
-        <v>10.55763980265047</v>
+        <v>8.40591574505407</v>
       </c>
       <c r="AT537" t="n">
         <v>0.1313091970450635</v>
@@ -63949,7 +63949,7 @@
         </is>
       </c>
       <c r="AS538" s="3" t="n">
-        <v>10.55763980265047</v>
+        <v>8.40591574505407</v>
       </c>
       <c r="AT538" t="n">
         <v>0.1313091970450635</v>
